--- a/SpreadSheets/5_4_1_Condiciones.xlsx
+++ b/SpreadSheets/5_4_1_Condiciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megat\Music\Cursos\Google_Datos\SpreadSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megat\Music\Cursos\Google_Datos\ADG\SpreadSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6F97CB-A873-4423-A998-46017B5DAE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB022D49-CA1F-42B4-A482-A3D7004A363B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -703,6 +703,10 @@
         <f t="array" ref="J8">_xlfn.IFS(B8="NY","NEW YORK",B8="CA","CALIFORNIA",TRUE,"OTRO")</f>
         <v>NEW YORK</v>
       </c>
+      <c r="L8">
+        <f>MATCH("AZ",B2:B15,0)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1091,14 +1095,44 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="b">
+        <f>IF(AND(G25&lt;10,H25&gt;1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>-4</v>
+      </c>
+      <c r="I26" t="b">
+        <f>IF(OR(G26&lt;10,H26&gt;1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f>IF(NOT(G27&lt;10),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="D28" s="4"/>
